--- a/BanG Dream! CD销量追踪.xlsx
+++ b/BanG Dream! CD销量追踪.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947"/>
+    <workbookView windowWidth="22368" windowHeight="9947" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457">
   <si>
     <t>一单(Yes)</t>
   </si>
@@ -691,6 +691,9 @@
     <t>1052(47)</t>
   </si>
   <si>
+    <t>562(66)</t>
+  </si>
+  <si>
     <t>第四周</t>
   </si>
   <si>
@@ -706,6 +709,9 @@
     <t>673(89)</t>
   </si>
   <si>
+    <t>638(63)</t>
+  </si>
+  <si>
     <t>453(99)</t>
   </si>
   <si>
@@ -722,6 +728,9 @@
   </si>
   <si>
     <t>459(97)</t>
+  </si>
+  <si>
+    <t>198(157)</t>
   </si>
   <si>
     <t>第六周</t>
@@ -1233,6 +1242,15 @@
     <t>17.09.26</t>
   </si>
   <si>
+    <t>17.10.03</t>
+  </si>
+  <si>
+    <t>17.10.10</t>
+  </si>
+  <si>
+    <t>17.10.17</t>
+  </si>
+  <si>
     <t>しゅわりん☆どり～みん</t>
   </si>
   <si>
@@ -1375,12 +1393,6 @@
   </si>
   <si>
     <t>注：先上架非尼后上架尼限，后尼限日亚断货。</t>
-  </si>
-  <si>
-    <t>17.10.03</t>
-  </si>
-  <si>
-    <t>17.10.10</t>
   </si>
   <si>
     <t>That Is How I Roll!</t>
@@ -1454,9 +1466,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1491,82 +1503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,23 +1526,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,6 +1562,53 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1628,7 +1617,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1655,7 +1667,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,31 +1763,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,85 +1793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,19 +1811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,19 +1841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,30 +2267,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2293,13 +2281,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2319,17 +2311,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2339,6 +2325,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2357,10 +2369,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2369,133 +2381,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2949,10 +2961,10 @@
   <sheetPr/>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3769,7 +3781,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -3826,6 +3838,9 @@
       </c>
       <c r="S14" s="14">
         <v>453</v>
+      </c>
+      <c r="T14" s="14">
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3887,7 +3902,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="14">
         <v>6</v>
       </c>
@@ -3930,8 +3945,11 @@
       <c r="R16" s="14">
         <v>266</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16" s="14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="14">
         <v>7</v>
       </c>
@@ -3970,6 +3988,9 @@
       </c>
       <c r="Q17" s="14">
         <v>219</v>
+      </c>
+      <c r="R17" s="14">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4214,7 +4235,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" s="14" customFormat="1" spans="1:9">
+    <row r="25" s="14" customFormat="1" spans="1:13">
       <c r="A25" s="14">
         <v>15</v>
       </c>
@@ -4242,8 +4263,11 @@
       <c r="I25" s="14" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" s="14" customFormat="1" spans="1:9">
+      <c r="M25" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" s="14" customFormat="1" spans="1:13">
       <c r="A26" s="14">
         <v>16</v>
       </c>
@@ -4270,6 +4294,9 @@
       </c>
       <c r="I26" s="14" t="s">
         <v>139</v>
+      </c>
+      <c r="M26" s="14">
+        <v>165</v>
       </c>
     </row>
     <row r="27" s="14" customFormat="1" spans="1:9">
@@ -4668,7 +4695,7 @@
       </c>
       <c r="M54" s="14">
         <f t="shared" si="0"/>
-        <v>23913</v>
+        <v>24078</v>
       </c>
       <c r="N54" s="14">
         <f t="shared" si="0"/>
@@ -4688,15 +4715,15 @@
       </c>
       <c r="R54" s="14">
         <f t="shared" si="0"/>
-        <v>22490</v>
+        <v>22745</v>
       </c>
       <c r="S54" s="14">
         <f t="shared" si="0"/>
-        <v>13514</v>
+        <v>13678</v>
       </c>
       <c r="T54" s="14">
         <f t="shared" si="0"/>
-        <v>13001</v>
+        <v>13376</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4738,7 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -4734,11 +4761,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4748,7 +4775,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -4756,43 +4783,43 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -4802,33 +4829,33 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -4838,7 +4865,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -4846,7 +4873,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -4856,16 +4883,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
@@ -4959,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C17" s="14">
         <v>616</v>
@@ -4974,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C18" s="14">
         <v>526</v>
@@ -5002,7 +5029,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C20" s="14">
         <v>345</v>
@@ -5017,7 +5044,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C21" s="14">
         <v>294</v>
@@ -5047,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C23" s="14">
         <v>734</v>
@@ -5075,7 +5102,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C25" s="14">
         <v>319</v>
@@ -5090,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C26" s="14">
         <v>432</v>
@@ -5105,7 +5132,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C27" s="14">
         <v>314</v>
@@ -5148,7 +5175,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C30" s="14">
         <v>244</v>
@@ -5163,7 +5190,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C31" s="1">
         <v>231</v>
@@ -5178,7 +5205,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C32" s="1">
         <v>243</v>
@@ -5193,7 +5220,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C33" s="1">
         <v>244</v>
@@ -5221,7 +5248,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C35" s="1">
         <v>395</v>
@@ -5236,7 +5263,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C36" s="1">
         <v>326</v>
@@ -5330,7 +5357,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5342,11 +5369,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5356,7 +5383,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -5364,43 +5391,43 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -5410,25 +5437,25 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -5436,7 +5463,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -5446,7 +5473,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -5454,7 +5481,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -5464,16 +5491,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
@@ -5597,7 +5624,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5609,11 +5636,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5623,7 +5650,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -5631,43 +5658,43 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -5677,33 +5704,33 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -5713,7 +5740,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -5721,7 +5748,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -5731,16 +5758,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
@@ -5777,7 +5804,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C13" s="14">
         <v>612</v>
@@ -5792,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C14" s="14">
         <v>347</v>
@@ -5819,7 +5846,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C16" s="14">
         <v>205</v>
@@ -5834,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C17" s="14">
         <v>166</v>
@@ -5899,7 +5926,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5911,11 +5938,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5923,15 +5950,15 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="14" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -5939,47 +5966,47 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="14" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -5987,7 +6014,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -5995,7 +6022,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="14">
         <f>3541/3968</f>
@@ -6004,25 +6031,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -6030,7 +6057,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -6040,7 +6067,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -6048,7 +6075,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -6058,16 +6085,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6089,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C12" s="14">
         <v>820</v>
@@ -6115,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C14" s="14">
         <v>205</v>
@@ -6130,7 +6157,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C15" s="14">
         <v>209</v>
@@ -6210,7 +6237,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6222,11 +6249,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -6234,15 +6261,15 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="14" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -6250,47 +6277,47 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -6298,7 +6325,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -6306,7 +6333,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="14">
         <f>3157/3622</f>
@@ -6315,25 +6342,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -6341,7 +6368,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -6351,7 +6378,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -6359,7 +6386,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -6369,16 +6396,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6400,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C12" s="14">
         <v>657</v>
@@ -6426,7 +6453,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C14" s="14">
         <v>173</v>
@@ -6441,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C15" s="14">
         <v>184</v>
@@ -6505,10 +6532,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6532,11 +6559,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -6544,71 +6571,71 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="14" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="14" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -6616,31 +6643,31 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J6" s="14">
         <f>17926/19313</f>
@@ -6650,15 +6677,15 @@
     </row>
     <row r="7" ht="15.6" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -6671,7 +6698,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:11">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -6679,7 +6706,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -6697,16 +6724,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:11">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -6717,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C11" s="14">
         <v>17926</v>
@@ -6749,7 +6776,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C13" s="14">
         <v>1413</v>
@@ -6767,7 +6794,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C14" s="14">
         <v>1174</v>
@@ -6782,7 +6809,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C15" s="14">
         <v>604</v>
@@ -6825,7 +6852,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C18" s="14">
         <v>393</v>
@@ -6840,7 +6867,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C19" s="14">
         <v>249</v>
@@ -6855,7 +6882,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C20" s="14">
         <v>329</v>
@@ -6870,7 +6897,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C21" s="14">
         <v>322</v>
@@ -6898,7 +6925,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C23" s="14">
         <v>410</v>
@@ -6913,7 +6940,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C24" s="1">
         <v>332</v>
@@ -6928,7 +6955,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C25" s="1">
         <v>176</v>
@@ -6943,7 +6970,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C26" s="1">
         <v>203</v>
@@ -6954,28 +6981,60 @@
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:4">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>2017.09</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <f>SUM(C23:C26)</f>
+        <v>1121</v>
+      </c>
+      <c r="D27" s="1">
+        <v>23913</v>
+      </c>
     </row>
     <row r="28" ht="15.6" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23913</v>
+      </c>
     </row>
     <row r="29" ht="15.6" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="1">
+        <v>23913</v>
+      </c>
     </row>
     <row r="30" ht="15.6" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="1">
+        <v>165</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D29+C30</f>
+        <v>24078</v>
+      </c>
     </row>
     <row r="31" ht="15.6" spans="1:4">
       <c r="A31" s="1"/>
@@ -6983,8 +7042,14 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
+    <row r="32" ht="15.6" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
@@ -7015,6 +7080,7 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -7038,7 +7104,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7050,11 +7116,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7063,15 +7129,15 @@
       <c r="H2" s="7"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -7079,57 +7145,57 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" ht="15.6" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -7137,7 +7203,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="14">
         <f>14088/13957</f>
@@ -7147,36 +7213,36 @@
     </row>
     <row r="6" ht="15.6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H6" s="10"/>
       <c r="K6" s="14" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -7186,7 +7252,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -7194,7 +7260,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -7204,16 +7270,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
@@ -7221,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C11" s="14">
         <v>14088</v>
@@ -7235,7 +7301,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C12" s="14">
         <v>2277</v>
@@ -7277,7 +7343,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C15" s="14">
         <v>673</v>
@@ -7292,7 +7358,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C16" s="14">
         <v>425</v>
@@ -7307,7 +7373,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C17" s="14">
         <v>390</v>
@@ -7322,7 +7388,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C18" s="1">
         <v>287</v>
@@ -7350,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C20" s="1">
         <v>268</v>
@@ -7365,7 +7431,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C21" s="1">
         <v>248</v>
@@ -7495,7 +7561,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7507,11 +7573,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7520,15 +7586,15 @@
       <c r="H2" s="7"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -7536,49 +7602,49 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" ht="15.6" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -7586,7 +7652,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -7594,7 +7660,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="14">
         <f>4103/5128</f>
@@ -7604,25 +7670,25 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -7630,7 +7696,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -7640,7 +7706,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -7648,7 +7714,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -7658,16 +7724,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
@@ -7701,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C13" s="14">
         <v>714</v>
@@ -7716,7 +7782,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C14" s="14">
         <v>265</v>
@@ -7731,7 +7797,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C15" s="14">
         <v>242</v>
@@ -7826,7 +7892,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7838,11 +7904,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7851,15 +7917,15 @@
       <c r="H2" s="7"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -7867,49 +7933,49 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" ht="15.6" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -7917,7 +7983,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -7925,7 +7991,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="14">
         <f>4119/5059</f>
@@ -7935,25 +8001,25 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -7961,7 +8027,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -7971,7 +8037,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -7979,7 +8045,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -7989,16 +8055,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
@@ -8032,7 +8098,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C13" s="14">
         <v>723</v>
@@ -8047,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C14" s="14">
         <v>294</v>
@@ -8062,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C15" s="14">
         <v>261</v>
@@ -8130,7 +8196,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8142,11 +8208,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -8156,7 +8222,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -8164,55 +8230,55 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="14" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -8220,7 +8286,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="14">
         <f>11126/9900</f>
@@ -8229,33 +8295,33 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -8265,7 +8331,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -8273,7 +8339,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -8283,16 +8349,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
@@ -8300,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C11" s="14">
         <v>11126</v>
@@ -8314,7 +8380,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C12" s="14">
         <v>1630</v>
@@ -8329,7 +8395,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C13" s="14">
         <v>935</v>
@@ -8346,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C14" s="1">
         <v>552</v>
@@ -8374,7 +8440,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C16" s="1">
         <v>421</v>
@@ -8389,7 +8455,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C17" s="1">
         <v>331</v>
@@ -8404,7 +8470,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C18" s="1">
         <v>219</v>
@@ -8419,7 +8485,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C19" s="1">
         <v>225</v>
@@ -8532,8 +8598,8 @@
   <sheetPr/>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -9922,8 +9988,8 @@
       <c r="S26" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="T26" s="14">
-        <v>562</v>
+      <c r="T26" s="14" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -10053,28 +10119,28 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="14">
         <v>552</v>
       </c>
-      <c r="R34" s="14">
-        <v>638</v>
+      <c r="R34" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -10156,22 +10222,22 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q42" s="14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="S42" s="14">
-        <v>198</v>
+        <v>230</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -10232,10 +10298,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -10296,10 +10362,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -10360,10 +10426,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -10424,10 +10490,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -10499,7 +10565,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10512,7 +10578,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="22" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -10524,11 +10590,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -10536,15 +10602,15 @@
       <c r="G2" s="28"/>
       <c r="H2" s="29"/>
       <c r="J2" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
@@ -10552,56 +10618,56 @@
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="31" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="24"/>
       <c r="J3" s="14" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="32" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="34" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="34" t="s">
@@ -10609,7 +10675,7 @@
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="14">
         <f>17374/16999</f>
@@ -10619,36 +10685,36 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="32" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="34" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H6" s="36"/>
       <c r="K6" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="34" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="37" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="34" t="s">
@@ -10658,7 +10724,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="38" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="40">
@@ -10666,7 +10732,7 @@
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="40">
@@ -10676,16 +10742,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10693,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C11" s="14">
         <v>17374</v>
@@ -10707,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C12" s="14">
         <v>3009</v>
@@ -10722,7 +10788,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C13" s="1">
         <v>744</v>
@@ -10739,7 +10805,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C14" s="1">
         <v>638</v>
@@ -10767,7 +10833,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="C16" s="1">
         <v>459</v>
@@ -10782,21 +10848,30 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="C17" s="1">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D17" s="1">
         <f>C17+D16</f>
-        <v>22422</v>
+        <v>22490</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="1">
+        <v>255</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18+D17</f>
+        <v>22745</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
@@ -10860,10 +10935,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -10876,7 +10951,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10888,11 +10963,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -10900,15 +10975,15 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" s="19" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -10916,55 +10991,55 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="20" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -10972,7 +11047,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="18">
         <f>10332/11509</f>
@@ -10981,33 +11056,33 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -11017,7 +11092,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -11025,7 +11100,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -11035,16 +11110,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11052,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C11" s="1">
         <v>10332</v>
@@ -11066,7 +11141,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C12" s="1">
         <v>1479</v>
@@ -11081,7 +11156,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C13" s="1">
         <v>1052</v>
@@ -11110,7 +11185,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="C15" s="1">
         <v>453</v>
@@ -11125,7 +11200,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="C16" s="1">
         <v>198</v>
@@ -11133,6 +11208,21 @@
       <c r="D16" s="1">
         <f>C16+D15</f>
         <v>13514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="1">
+        <v>164</v>
+      </c>
+      <c r="D17" s="1">
+        <f>C17+D16</f>
+        <v>13678</v>
       </c>
     </row>
   </sheetData>
@@ -11174,10 +11264,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11202,11 +11292,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -11217,12 +11307,12 @@
         <v>4423</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -11230,39 +11320,39 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="17">
         <v>14399</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J4" s="16">
         <v>18822</v>
@@ -11270,15 +11360,15 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -11286,7 +11376,7 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J5" s="18">
         <f>10603/J4</f>
@@ -11295,33 +11385,33 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -11331,7 +11421,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -11339,7 +11429,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -11349,16 +11439,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11366,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C11" s="1">
         <v>10603</v>
@@ -11391,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="C13" s="1">
         <v>1836</v>
@@ -11407,7 +11497,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="C14" s="1">
         <v>562</v>
@@ -11415,6 +11505,21 @@
       <c r="D14" s="1">
         <f>D13+C14</f>
         <v>13001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="1">
+        <v>375</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15+D14</f>
+        <v>13376</v>
       </c>
     </row>
   </sheetData>
@@ -11655,7 +11760,7 @@
         <v>171</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>181</v>
@@ -11936,7 +12041,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11948,11 +12053,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -11962,7 +12067,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -11970,35 +12075,35 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" s="14" customFormat="1" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" s="14" customFormat="1" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -12006,35 +12111,35 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" s="14" customFormat="1" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -12042,7 +12147,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -12052,7 +12157,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -12060,7 +12165,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -12070,16 +12175,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12087,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C11" s="14">
         <v>1625</v>
@@ -12101,7 +12206,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C12" s="14">
         <v>390</v>
@@ -12326,7 +12431,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12338,11 +12443,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -12352,79 +12457,79 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -12432,17 +12537,17 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -12450,7 +12555,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -12460,16 +12565,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12477,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C11" s="14">
         <v>3509</v>
@@ -12491,7 +12596,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C12" s="14">
         <v>791</v>
@@ -12506,7 +12611,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C13" s="14">
         <v>447</v>
@@ -12521,7 +12626,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C14" s="14">
         <v>409</v>
@@ -12536,7 +12641,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C15" s="14">
         <v>690</v>
@@ -12820,7 +12925,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -12832,11 +12937,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -12846,7 +12951,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -12854,89 +12959,89 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -12944,7 +13049,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -12954,16 +13059,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12971,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C11" s="14">
         <v>11460</v>
@@ -12985,7 +13090,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C12" s="14">
         <v>684</v>
@@ -12999,7 +13104,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C13" s="14">
         <v>450</v>
@@ -13013,7 +13118,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C14" s="14">
         <v>266</v>
@@ -13038,7 +13143,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C16" s="14">
         <v>309</v>
@@ -13053,7 +13158,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C17" s="14">
         <v>238</v>
@@ -13134,7 +13239,7 @@
         <v>14693</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -13288,7 +13393,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C33" s="14">
         <v>250</v>
@@ -13367,7 +13472,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -13379,11 +13484,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -13393,7 +13498,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -13401,43 +13506,43 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -13447,33 +13552,33 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -13483,7 +13588,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -13491,7 +13596,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -13501,16 +13606,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -13562,7 +13667,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C14" s="14">
         <v>648</v>
@@ -13588,7 +13693,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C16" s="14">
         <v>394</v>
@@ -13603,7 +13708,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C17" s="14">
         <v>335</v>
@@ -13828,7 +13933,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -13840,11 +13945,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -13854,7 +13959,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -13862,43 +13967,43 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -13908,25 +14013,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -13934,7 +14039,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -13944,7 +14049,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -13952,7 +14057,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -13962,16 +14067,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -13993,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C12" s="1">
         <v>1032</v>
@@ -14019,7 +14124,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C14" s="1">
         <v>529</v>
@@ -14034,7 +14139,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C15" s="1">
         <v>357</v>
@@ -14241,7 +14346,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -14253,11 +14358,11 @@
     </row>
     <row r="2" ht="16.35" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -14267,7 +14372,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -14275,43 +14380,43 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -14321,25 +14426,25 @@
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
@@ -14347,7 +14452,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -14357,7 +14462,7 @@
     </row>
     <row r="8" ht="16.35" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12">
@@ -14365,7 +14470,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12">
@@ -14375,16 +14480,16 @@
     </row>
     <row r="10" ht="15.6" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
